--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>HHR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>96600</v>
+        <v>110600</v>
       </c>
       <c r="E8" s="3">
-        <v>74700</v>
+        <v>86900</v>
       </c>
       <c r="F8" s="3">
-        <v>59000</v>
+        <v>67200</v>
       </c>
       <c r="G8" s="3">
-        <v>49000</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>53100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -732,26 +735,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>27100</v>
+        <v>31700</v>
       </c>
       <c r="E9" s="3">
-        <v>23800</v>
+        <v>24400</v>
       </c>
       <c r="F9" s="3">
-        <v>19700</v>
+        <v>21400</v>
       </c>
       <c r="G9" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>17700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -759,26 +765,29 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>69500</v>
+        <v>78900</v>
       </c>
       <c r="E10" s="3">
-        <v>50900</v>
+        <v>62500</v>
       </c>
       <c r="F10" s="3">
-        <v>39300</v>
+        <v>45800</v>
       </c>
       <c r="G10" s="3">
-        <v>33400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>35400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>30000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,26 +869,29 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>-6900</v>
-      </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>-6200</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -880,26 +899,29 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="F15" s="3">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,25 +943,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63400</v>
+        <v>70800</v>
       </c>
       <c r="E17" s="3">
-        <v>46000</v>
+        <v>57000</v>
       </c>
       <c r="F17" s="3">
-        <v>40800</v>
+        <v>41300</v>
       </c>
       <c r="G17" s="3">
-        <v>25800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>36700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>23200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -944,26 +970,29 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33200</v>
+        <v>39800</v>
       </c>
       <c r="E18" s="3">
-        <v>28800</v>
+        <v>29900</v>
       </c>
       <c r="F18" s="3">
-        <v>18300</v>
+        <v>25900</v>
       </c>
       <c r="G18" s="3">
-        <v>23200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>20900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,25 +1017,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>2800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1011,26 +1044,29 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>43900</v>
+        <v>49700</v>
       </c>
       <c r="E21" s="3">
-        <v>40300</v>
+        <v>39300</v>
       </c>
       <c r="F21" s="3">
-        <v>25900</v>
+        <v>36200</v>
       </c>
       <c r="G21" s="3">
-        <v>27800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>23200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>25000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1038,26 +1074,29 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10200</v>
+        <v>8500</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>9100</v>
       </c>
       <c r="F22" s="3">
         <v>10000</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>9000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1065,26 +1104,29 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24400</v>
+        <v>31600</v>
       </c>
       <c r="E23" s="3">
-        <v>20300</v>
+        <v>21900</v>
       </c>
       <c r="F23" s="3">
-        <v>8400</v>
+        <v>18200</v>
       </c>
       <c r="G23" s="3">
-        <v>26400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>23700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1092,26 +1134,29 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8000</v>
+        <v>9200</v>
       </c>
       <c r="E24" s="3">
-        <v>13000</v>
+        <v>7200</v>
       </c>
       <c r="F24" s="3">
-        <v>7200</v>
+        <v>11700</v>
       </c>
       <c r="G24" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,26 +1194,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16300</v>
+        <v>22500</v>
       </c>
       <c r="E26" s="3">
-        <v>7300</v>
+        <v>14700</v>
       </c>
       <c r="F26" s="3">
-        <v>1200</v>
+        <v>6600</v>
       </c>
       <c r="G26" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>18100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1173,26 +1224,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15000</v>
+        <v>20600</v>
       </c>
       <c r="E27" s="3">
-        <v>6300</v>
+        <v>13500</v>
       </c>
       <c r="F27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>17400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,26 +1374,29 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1300</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>-2800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1335,26 +1404,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15000</v>
+        <v>20600</v>
       </c>
       <c r="E33" s="3">
-        <v>6300</v>
+        <v>13500</v>
       </c>
       <c r="F33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>17400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,26 +1464,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15000</v>
+        <v>20600</v>
       </c>
       <c r="E35" s="3">
-        <v>6300</v>
+        <v>13500</v>
       </c>
       <c r="F35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>17400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1416,41 +1494,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45200</v>
+        <v>29800</v>
       </c>
       <c r="E41" s="3">
-        <v>22400</v>
+        <v>40800</v>
       </c>
       <c r="F41" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>20200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1513,12 +1602,12 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>4700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F45" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>11800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>46800</v>
+        <v>32300</v>
       </c>
       <c r="E46" s="3">
-        <v>24200</v>
+        <v>42300</v>
       </c>
       <c r="F46" s="3">
-        <v>23700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>21800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>21400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,50 +1737,56 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>11400</v>
       </c>
       <c r="E48" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>158600</v>
+        <v>136900</v>
       </c>
       <c r="E49" s="3">
-        <v>164200</v>
+        <v>143200</v>
       </c>
       <c r="F49" s="3">
-        <v>170700</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>148300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>154200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>210600</v>
+        <v>185900</v>
       </c>
       <c r="E54" s="3">
-        <v>192200</v>
+        <v>190200</v>
       </c>
       <c r="F54" s="3">
-        <v>197800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>173600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>178600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,23 +2035,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="E58" s="3">
-        <v>10600</v>
+        <v>17600</v>
       </c>
       <c r="F58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43100</v>
+        <v>49300</v>
       </c>
       <c r="E59" s="3">
-        <v>32500</v>
+        <v>38900</v>
       </c>
       <c r="F59" s="3">
-        <v>23500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>29300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>21200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>63900</v>
+        <v>66900</v>
       </c>
       <c r="E60" s="3">
-        <v>44100</v>
+        <v>57700</v>
       </c>
       <c r="F60" s="3">
-        <v>27700</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>39800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>25000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,23 +2125,26 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82200</v>
+        <v>61300</v>
       </c>
       <c r="E61" s="3">
-        <v>97300</v>
+        <v>74200</v>
       </c>
       <c r="F61" s="3">
-        <v>74600</v>
+        <v>87900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>67400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17100</v>
+        <v>9500</v>
       </c>
       <c r="E62" s="3">
-        <v>19900</v>
+        <v>15500</v>
       </c>
       <c r="F62" s="3">
-        <v>19700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>18000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>17800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>163700</v>
+        <v>138100</v>
       </c>
       <c r="E66" s="3">
-        <v>161600</v>
+        <v>147800</v>
       </c>
       <c r="F66" s="3">
-        <v>122300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>146000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>110400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20600</v>
+        <v>22600</v>
       </c>
       <c r="E72" s="3">
-        <v>-48400</v>
+        <v>18600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-43700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47000</v>
+        <v>47800</v>
       </c>
       <c r="E76" s="3">
-        <v>30500</v>
+        <v>42400</v>
       </c>
       <c r="F76" s="3">
-        <v>75500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>27600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>68200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,58 +2619,64 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15000</v>
+        <v>20600</v>
       </c>
       <c r="E81" s="3">
-        <v>6300</v>
+        <v>13500</v>
       </c>
       <c r="F81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>17400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,25 +2701,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="F83" s="3">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="G83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,26 +2878,29 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33100</v>
+        <v>37100</v>
       </c>
       <c r="E89" s="3">
-        <v>25100</v>
+        <v>29800</v>
       </c>
       <c r="F89" s="3">
-        <v>12900</v>
+        <v>22600</v>
       </c>
       <c r="G89" s="3">
-        <v>18800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>11600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>16900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1900</v>
+        <v>-5400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1000</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,26 +3012,29 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2800</v>
+        <v>-9000</v>
       </c>
       <c r="E94" s="3">
-        <v>10700</v>
+        <v>-2500</v>
       </c>
       <c r="F94" s="3">
-        <v>-160500</v>
+        <v>9700</v>
       </c>
       <c r="G94" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-144300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-15600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,13 +3059,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-16100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,26 +3176,29 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7900</v>
+        <v>-37700</v>
       </c>
       <c r="E100" s="3">
-        <v>-20100</v>
+        <v>-7100</v>
       </c>
       <c r="F100" s="3">
-        <v>157400</v>
+        <v>-18100</v>
       </c>
       <c r="G100" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>141500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -2961,53 +3206,59 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>-5400</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22600</v>
+        <v>-11000</v>
       </c>
       <c r="E102" s="3">
-        <v>17100</v>
+        <v>20400</v>
       </c>
       <c r="F102" s="3">
-        <v>4400</v>
+        <v>15400</v>
       </c>
       <c r="G102" s="3">
-        <v>800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>110600</v>
+        <v>103200</v>
       </c>
       <c r="E8" s="3">
-        <v>86900</v>
+        <v>81100</v>
       </c>
       <c r="F8" s="3">
-        <v>67200</v>
+        <v>62700</v>
       </c>
       <c r="G8" s="3">
-        <v>53100</v>
+        <v>49500</v>
       </c>
       <c r="H8" s="3">
-        <v>44100</v>
+        <v>41100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="E9" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="F9" s="3">
-        <v>21400</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="H9" s="3">
-        <v>14100</v>
+        <v>13100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>78900</v>
+        <v>73600</v>
       </c>
       <c r="E10" s="3">
-        <v>62500</v>
+        <v>58300</v>
       </c>
       <c r="F10" s="3">
-        <v>45800</v>
+        <v>42800</v>
       </c>
       <c r="G10" s="3">
-        <v>35400</v>
+        <v>33000</v>
       </c>
       <c r="H10" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -885,7 +885,7 @@
         <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="G14" s="3">
         <v>800</v>
@@ -909,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="E15" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="F15" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="G15" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="H15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70800</v>
+        <v>66000</v>
       </c>
       <c r="E17" s="3">
-        <v>57000</v>
+        <v>53200</v>
       </c>
       <c r="F17" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="G17" s="3">
-        <v>36700</v>
+        <v>34200</v>
       </c>
       <c r="H17" s="3">
-        <v>23200</v>
+        <v>21600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>39800</v>
+        <v>37200</v>
       </c>
       <c r="E18" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="F18" s="3">
-        <v>25900</v>
+        <v>24100</v>
       </c>
       <c r="G18" s="3">
-        <v>16400</v>
+        <v>15300</v>
       </c>
       <c r="H18" s="3">
-        <v>20900</v>
+        <v>19500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1027,16 +1027,16 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>49700</v>
+        <v>46500</v>
       </c>
       <c r="E21" s="3">
-        <v>39300</v>
+        <v>36800</v>
       </c>
       <c r="F21" s="3">
-        <v>36200</v>
+        <v>33800</v>
       </c>
       <c r="G21" s="3">
-        <v>23200</v>
+        <v>21700</v>
       </c>
       <c r="H21" s="3">
-        <v>25000</v>
+        <v>23300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
         <v>8500</v>
       </c>
-      <c r="E22" s="3">
-        <v>9100</v>
-      </c>
       <c r="F22" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="G22" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="E23" s="3">
-        <v>21900</v>
+        <v>20400</v>
       </c>
       <c r="F23" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="G23" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="H23" s="3">
-        <v>23700</v>
+        <v>22100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9200</v>
+        <v>8500</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="F24" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="H24" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22500</v>
+        <v>20900</v>
       </c>
       <c r="E26" s="3">
-        <v>14700</v>
+        <v>13700</v>
       </c>
       <c r="F26" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="G26" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="E27" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="F27" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G27" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H27" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1387,16 +1387,16 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="E33" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="F33" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G33" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H33" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="E35" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="F35" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G35" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H35" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29800</v>
+        <v>27700</v>
       </c>
       <c r="E41" s="3">
-        <v>40800</v>
+        <v>37900</v>
       </c>
       <c r="F41" s="3">
-        <v>20200</v>
+        <v>18800</v>
       </c>
       <c r="G41" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1630,13 +1630,13 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E45" s="3">
         <v>900</v>
@@ -1696,7 +1696,7 @@
         <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32300</v>
+        <v>30000</v>
       </c>
       <c r="E46" s="3">
-        <v>42300</v>
+        <v>39300</v>
       </c>
       <c r="F46" s="3">
-        <v>21800</v>
+        <v>20300</v>
       </c>
       <c r="G46" s="3">
-        <v>21400</v>
+        <v>19900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11400</v>
+        <v>9400</v>
       </c>
       <c r="E48" s="3">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="F48" s="3">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>136900</v>
+        <v>128400</v>
       </c>
       <c r="E49" s="3">
-        <v>143200</v>
+        <v>134400</v>
       </c>
       <c r="F49" s="3">
-        <v>148300</v>
+        <v>139200</v>
       </c>
       <c r="G49" s="3">
-        <v>154200</v>
+        <v>144900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185900</v>
+        <v>172800</v>
       </c>
       <c r="E54" s="3">
-        <v>190200</v>
+        <v>176700</v>
       </c>
       <c r="F54" s="3">
-        <v>173600</v>
+        <v>161300</v>
       </c>
       <c r="G54" s="3">
-        <v>178600</v>
+        <v>166000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16000</v>
+        <v>14900</v>
       </c>
       <c r="E58" s="3">
-        <v>17600</v>
+        <v>16300</v>
       </c>
       <c r="F58" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="G58" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49300</v>
+        <v>45800</v>
       </c>
       <c r="E59" s="3">
-        <v>38900</v>
+        <v>36200</v>
       </c>
       <c r="F59" s="3">
-        <v>29300</v>
+        <v>27200</v>
       </c>
       <c r="G59" s="3">
-        <v>21200</v>
+        <v>19700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>66900</v>
+        <v>62200</v>
       </c>
       <c r="E60" s="3">
-        <v>57700</v>
+        <v>53600</v>
       </c>
       <c r="F60" s="3">
-        <v>39800</v>
+        <v>37000</v>
       </c>
       <c r="G60" s="3">
-        <v>25000</v>
+        <v>23300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61300</v>
+        <v>56900</v>
       </c>
       <c r="E61" s="3">
-        <v>74200</v>
+        <v>68900</v>
       </c>
       <c r="F61" s="3">
-        <v>87900</v>
+        <v>81700</v>
       </c>
       <c r="G61" s="3">
-        <v>67400</v>
+        <v>62600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9500</v>
+        <v>8800</v>
       </c>
       <c r="E62" s="3">
-        <v>15500</v>
+        <v>14400</v>
       </c>
       <c r="F62" s="3">
-        <v>18000</v>
+        <v>16700</v>
       </c>
       <c r="G62" s="3">
-        <v>17800</v>
+        <v>16500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>138100</v>
+        <v>128300</v>
       </c>
       <c r="E66" s="3">
-        <v>147800</v>
+        <v>137300</v>
       </c>
       <c r="F66" s="3">
-        <v>146000</v>
+        <v>135600</v>
       </c>
       <c r="G66" s="3">
-        <v>110400</v>
+        <v>102600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22600</v>
+        <v>21000</v>
       </c>
       <c r="E72" s="3">
-        <v>18600</v>
+        <v>17300</v>
       </c>
       <c r="F72" s="3">
-        <v>-43700</v>
+        <v>-40600</v>
       </c>
       <c r="G72" s="3">
         <v>-1200</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47800</v>
+        <v>44500</v>
       </c>
       <c r="E76" s="3">
-        <v>42400</v>
+        <v>39400</v>
       </c>
       <c r="F76" s="3">
-        <v>27600</v>
+        <v>25600</v>
       </c>
       <c r="G76" s="3">
-        <v>68200</v>
+        <v>63400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="E81" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="F81" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G81" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H81" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="E83" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="F83" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="G83" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="H83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37100</v>
+        <v>34600</v>
       </c>
       <c r="E89" s="3">
-        <v>29800</v>
+        <v>27800</v>
       </c>
       <c r="F89" s="3">
-        <v>22600</v>
+        <v>21100</v>
       </c>
       <c r="G89" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="H89" s="3">
-        <v>16900</v>
+        <v>15700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
         <v>-900</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9000</v>
+        <v>-8400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="F94" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="G94" s="3">
-        <v>-144300</v>
+        <v>-134700</v>
       </c>
       <c r="H94" s="3">
-        <v>-15600</v>
+        <v>-14600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3066,7 +3066,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-16100</v>
+        <v>-15000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-37700</v>
+        <v>-35200</v>
       </c>
       <c r="E100" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="F100" s="3">
-        <v>-18100</v>
+        <v>-16900</v>
       </c>
       <c r="G100" s="3">
-        <v>141500</v>
+        <v>132100</v>
       </c>
       <c r="H100" s="3">
         <v>-600</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11000</v>
+        <v>-10200</v>
       </c>
       <c r="E102" s="3">
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="F102" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="G102" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>103200</v>
+        <v>102700</v>
       </c>
       <c r="E8" s="3">
-        <v>81100</v>
+        <v>80700</v>
       </c>
       <c r="F8" s="3">
-        <v>62700</v>
+        <v>62400</v>
       </c>
       <c r="G8" s="3">
-        <v>49500</v>
+        <v>49300</v>
       </c>
       <c r="H8" s="3">
-        <v>41100</v>
+        <v>40900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>29600</v>
+        <v>29500</v>
       </c>
       <c r="E9" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="F9" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="G9" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="H9" s="3">
         <v>13100</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>73600</v>
+        <v>73300</v>
       </c>
       <c r="E10" s="3">
-        <v>58300</v>
+        <v>58000</v>
       </c>
       <c r="F10" s="3">
-        <v>42800</v>
+        <v>42600</v>
       </c>
       <c r="G10" s="3">
-        <v>33000</v>
+        <v>32800</v>
       </c>
       <c r="H10" s="3">
-        <v>28000</v>
+        <v>27900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -909,10 +909,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F15" s="3">
         <v>7400</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66000</v>
+        <v>65700</v>
       </c>
       <c r="E17" s="3">
-        <v>53200</v>
+        <v>52900</v>
       </c>
       <c r="F17" s="3">
-        <v>38600</v>
+        <v>38400</v>
       </c>
       <c r="G17" s="3">
-        <v>34200</v>
+        <v>34100</v>
       </c>
       <c r="H17" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37200</v>
+        <v>37000</v>
       </c>
       <c r="E18" s="3">
-        <v>27900</v>
+        <v>27800</v>
       </c>
       <c r="F18" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="G18" s="3">
         <v>15300</v>
       </c>
       <c r="H18" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46500</v>
+        <v>46300</v>
       </c>
       <c r="E21" s="3">
-        <v>36800</v>
+        <v>36600</v>
       </c>
       <c r="F21" s="3">
-        <v>33800</v>
+        <v>33700</v>
       </c>
       <c r="G21" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="H21" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>8500</v>
       </c>
       <c r="F22" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G22" s="3">
         <v>8400</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29500</v>
+        <v>29400</v>
       </c>
       <c r="E23" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="F23" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="G23" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H23" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1147,13 +1147,13 @@
         <v>8500</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F24" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G24" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="3">
         <v>5200</v>
@@ -1207,7 +1207,7 @@
         <v>20900</v>
       </c>
       <c r="E26" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="F26" s="3">
         <v>6100</v>
@@ -1216,7 +1216,7 @@
         <v>1000</v>
       </c>
       <c r="H26" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="E27" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F27" s="3">
         <v>5300</v>
@@ -1414,10 +1414,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="E33" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F33" s="3">
         <v>5300</v>
@@ -1474,10 +1474,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="E35" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F35" s="3">
         <v>5300</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27700</v>
+        <v>27600</v>
       </c>
       <c r="E41" s="3">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="F41" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="G41" s="3">
         <v>4300</v>
@@ -1636,7 +1636,7 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1690,13 +1690,13 @@
         <v>1600</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30000</v>
+        <v>29900</v>
       </c>
       <c r="E46" s="3">
-        <v>39300</v>
+        <v>39100</v>
       </c>
       <c r="F46" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="G46" s="3">
-        <v>19900</v>
+        <v>19800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>128400</v>
+        <v>127800</v>
       </c>
       <c r="E49" s="3">
-        <v>134400</v>
+        <v>133800</v>
       </c>
       <c r="F49" s="3">
-        <v>139200</v>
+        <v>138600</v>
       </c>
       <c r="G49" s="3">
-        <v>144900</v>
+        <v>144300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>172800</v>
+        <v>172000</v>
       </c>
       <c r="E54" s="3">
-        <v>176700</v>
+        <v>175900</v>
       </c>
       <c r="F54" s="3">
-        <v>161300</v>
+        <v>160500</v>
       </c>
       <c r="G54" s="3">
-        <v>166000</v>
+        <v>165200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="E58" s="3">
         <v>16300</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45800</v>
+        <v>45600</v>
       </c>
       <c r="E59" s="3">
-        <v>36200</v>
+        <v>36000</v>
       </c>
       <c r="F59" s="3">
-        <v>27200</v>
+        <v>27100</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>62200</v>
+        <v>61900</v>
       </c>
       <c r="E60" s="3">
-        <v>53600</v>
+        <v>53400</v>
       </c>
       <c r="F60" s="3">
-        <v>37000</v>
+        <v>36800</v>
       </c>
       <c r="G60" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56900</v>
+        <v>56700</v>
       </c>
       <c r="E61" s="3">
-        <v>68900</v>
+        <v>68600</v>
       </c>
       <c r="F61" s="3">
-        <v>81700</v>
+        <v>81300</v>
       </c>
       <c r="G61" s="3">
-        <v>62600</v>
+        <v>62300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E62" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="F62" s="3">
         <v>16700</v>
       </c>
       <c r="G62" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>128300</v>
+        <v>127700</v>
       </c>
       <c r="E66" s="3">
-        <v>137300</v>
+        <v>136700</v>
       </c>
       <c r="F66" s="3">
-        <v>135600</v>
+        <v>135000</v>
       </c>
       <c r="G66" s="3">
-        <v>102600</v>
+        <v>102100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21000</v>
+        <v>20900</v>
       </c>
       <c r="E72" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="F72" s="3">
-        <v>-40600</v>
+        <v>-40400</v>
       </c>
       <c r="G72" s="3">
         <v>-1200</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="E76" s="3">
-        <v>39400</v>
+        <v>39200</v>
       </c>
       <c r="F76" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="G76" s="3">
-        <v>63400</v>
+        <v>63100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,10 +2664,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="E81" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F81" s="3">
         <v>5300</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F83" s="3">
         <v>7400</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34600</v>
+        <v>34400</v>
       </c>
       <c r="E89" s="3">
-        <v>27800</v>
+        <v>27700</v>
       </c>
       <c r="F89" s="3">
-        <v>21100</v>
+        <v>21000</v>
       </c>
       <c r="G89" s="3">
         <v>10800</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="E91" s="3">
         <v>-1600</v>
@@ -3031,10 +3031,10 @@
         <v>9000</v>
       </c>
       <c r="G94" s="3">
-        <v>-134700</v>
+        <v>-134000</v>
       </c>
       <c r="H94" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35200</v>
+        <v>-35000</v>
       </c>
       <c r="E100" s="3">
         <v>-6600</v>
       </c>
       <c r="F100" s="3">
-        <v>-16900</v>
+        <v>-16800</v>
       </c>
       <c r="G100" s="3">
-        <v>132100</v>
+        <v>131500</v>
       </c>
       <c r="H100" s="3">
         <v>-600</v>
@@ -3249,13 +3249,13 @@
         <v>-10200</v>
       </c>
       <c r="E102" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="F102" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="G102" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>102700</v>
+        <v>102400</v>
       </c>
       <c r="E8" s="3">
-        <v>80700</v>
+        <v>80400</v>
       </c>
       <c r="F8" s="3">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="G8" s="3">
-        <v>49300</v>
+        <v>49200</v>
       </c>
       <c r="H8" s="3">
-        <v>40900</v>
+        <v>40800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>29500</v>
+        <v>29400</v>
       </c>
       <c r="E9" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="F9" s="3">
-        <v>19900</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="H9" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>73300</v>
+        <v>73000</v>
       </c>
       <c r="E10" s="3">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="F10" s="3">
-        <v>42600</v>
+        <v>42400</v>
       </c>
       <c r="G10" s="3">
-        <v>32800</v>
+        <v>32700</v>
       </c>
       <c r="H10" s="3">
-        <v>27900</v>
+        <v>27800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65700</v>
+        <v>65500</v>
       </c>
       <c r="E17" s="3">
-        <v>52900</v>
+        <v>52800</v>
       </c>
       <c r="F17" s="3">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="G17" s="3">
-        <v>34100</v>
+        <v>34000</v>
       </c>
       <c r="H17" s="3">
         <v>21500</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37000</v>
+        <v>36900</v>
       </c>
       <c r="E18" s="3">
-        <v>27800</v>
+        <v>27700</v>
       </c>
       <c r="F18" s="3">
         <v>24000</v>
       </c>
       <c r="G18" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H18" s="3">
         <v>19400</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46300</v>
+        <v>46100</v>
       </c>
       <c r="E21" s="3">
-        <v>36600</v>
+        <v>36400</v>
       </c>
       <c r="F21" s="3">
-        <v>33700</v>
+        <v>33500</v>
       </c>
       <c r="G21" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="H21" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="E23" s="3">
         <v>20300</v>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="E26" s="3">
         <v>13600</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="E27" s="3">
         <v>12500</v>
@@ -1246,7 +1246,7 @@
         <v>500</v>
       </c>
       <c r="H27" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="E33" s="3">
         <v>12500</v>
@@ -1426,7 +1426,7 @@
         <v>500</v>
       </c>
       <c r="H33" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="E35" s="3">
         <v>12500</v>
@@ -1486,7 +1486,7 @@
         <v>500</v>
       </c>
       <c r="H35" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27600</v>
+        <v>27500</v>
       </c>
       <c r="E41" s="3">
-        <v>37700</v>
+        <v>37600</v>
       </c>
       <c r="F41" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="G41" s="3">
         <v>4300</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29900</v>
+        <v>29800</v>
       </c>
       <c r="E46" s="3">
-        <v>39100</v>
+        <v>39000</v>
       </c>
       <c r="F46" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="G46" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127800</v>
+        <v>127400</v>
       </c>
       <c r="E49" s="3">
-        <v>133800</v>
+        <v>133400</v>
       </c>
       <c r="F49" s="3">
-        <v>138600</v>
+        <v>138200</v>
       </c>
       <c r="G49" s="3">
-        <v>144300</v>
+        <v>143800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>172000</v>
+        <v>171500</v>
       </c>
       <c r="E54" s="3">
-        <v>175900</v>
+        <v>175400</v>
       </c>
       <c r="F54" s="3">
-        <v>160500</v>
+        <v>160000</v>
       </c>
       <c r="G54" s="3">
-        <v>165200</v>
+        <v>164700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2048,7 +2048,7 @@
         <v>14800</v>
       </c>
       <c r="E58" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="F58" s="3">
         <v>8900</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45600</v>
+        <v>45500</v>
       </c>
       <c r="E59" s="3">
-        <v>36000</v>
+        <v>35900</v>
       </c>
       <c r="F59" s="3">
-        <v>27100</v>
+        <v>27000</v>
       </c>
       <c r="G59" s="3">
         <v>19600</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="E60" s="3">
-        <v>53400</v>
+        <v>53200</v>
       </c>
       <c r="F60" s="3">
-        <v>36800</v>
+        <v>36700</v>
       </c>
       <c r="G60" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56700</v>
+        <v>56500</v>
       </c>
       <c r="E61" s="3">
-        <v>68600</v>
+        <v>68400</v>
       </c>
       <c r="F61" s="3">
-        <v>81300</v>
+        <v>81000</v>
       </c>
       <c r="G61" s="3">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>14300</v>
       </c>
       <c r="F62" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="G62" s="3">
         <v>16400</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>127700</v>
+        <v>127300</v>
       </c>
       <c r="E66" s="3">
-        <v>136700</v>
+        <v>136300</v>
       </c>
       <c r="F66" s="3">
-        <v>135000</v>
+        <v>134600</v>
       </c>
       <c r="G66" s="3">
-        <v>102100</v>
+        <v>101800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2452,13 +2452,13 @@
         <v>20900</v>
       </c>
       <c r="E72" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="F72" s="3">
-        <v>-40400</v>
+        <v>-40300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44300</v>
+        <v>44100</v>
       </c>
       <c r="E76" s="3">
-        <v>39200</v>
+        <v>39100</v>
       </c>
       <c r="F76" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="G76" s="3">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="E81" s="3">
         <v>12500</v>
@@ -2676,7 +2676,7 @@
         <v>500</v>
       </c>
       <c r="H81" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34400</v>
+        <v>34300</v>
       </c>
       <c r="E89" s="3">
-        <v>27700</v>
+        <v>27600</v>
       </c>
       <c r="F89" s="3">
-        <v>21000</v>
+        <v>20900</v>
       </c>
       <c r="G89" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="H89" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3028,13 +3028,13 @@
         <v>-2300</v>
       </c>
       <c r="F94" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="G94" s="3">
-        <v>-134000</v>
+        <v>-133600</v>
       </c>
       <c r="H94" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3066,7 +3066,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35000</v>
+        <v>-34900</v>
       </c>
       <c r="E100" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="F100" s="3">
         <v>-16800</v>
       </c>
       <c r="G100" s="3">
-        <v>131500</v>
+        <v>131100</v>
       </c>
       <c r="H100" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>HHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>102400</v>
+        <v>112700</v>
       </c>
       <c r="E8" s="3">
-        <v>80400</v>
+        <v>106000</v>
       </c>
       <c r="F8" s="3">
-        <v>62200</v>
+        <v>83300</v>
       </c>
       <c r="G8" s="3">
-        <v>49200</v>
+        <v>64400</v>
       </c>
       <c r="H8" s="3">
-        <v>40800</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>50900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>42200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,29 +741,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>29400</v>
+        <v>35100</v>
       </c>
       <c r="E9" s="3">
-        <v>22600</v>
+        <v>30400</v>
       </c>
       <c r="F9" s="3">
-        <v>19800</v>
+        <v>23400</v>
       </c>
       <c r="G9" s="3">
-        <v>16400</v>
+        <v>20500</v>
       </c>
       <c r="H9" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>17000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>73000</v>
+        <v>77600</v>
       </c>
       <c r="E10" s="3">
-        <v>57900</v>
+        <v>75600</v>
       </c>
       <c r="F10" s="3">
-        <v>42400</v>
+        <v>59900</v>
       </c>
       <c r="G10" s="3">
-        <v>32700</v>
+        <v>43900</v>
       </c>
       <c r="H10" s="3">
-        <v>27800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>33900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>28800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>-5800</v>
-      </c>
       <c r="G14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -902,39 +921,45 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9000</v>
+        <v>10200</v>
       </c>
       <c r="E15" s="3">
-        <v>7700</v>
+        <v>9300</v>
       </c>
       <c r="F15" s="3">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="3">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="H15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65500</v>
+        <v>74100</v>
       </c>
       <c r="E17" s="3">
-        <v>52800</v>
+        <v>67800</v>
       </c>
       <c r="F17" s="3">
-        <v>38300</v>
+        <v>54600</v>
       </c>
       <c r="G17" s="3">
-        <v>34000</v>
+        <v>39600</v>
       </c>
       <c r="H17" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>35100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>22200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36900</v>
+        <v>38700</v>
       </c>
       <c r="E18" s="3">
-        <v>27700</v>
+        <v>38200</v>
       </c>
       <c r="F18" s="3">
-        <v>24000</v>
+        <v>28600</v>
       </c>
       <c r="G18" s="3">
-        <v>15200</v>
+        <v>24800</v>
       </c>
       <c r="H18" s="3">
-        <v>19400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>15800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,28 +1050,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>2200</v>
-      </c>
       <c r="G20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>2700</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1047,29 +1080,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46100</v>
+        <v>50600</v>
       </c>
       <c r="E21" s="3">
-        <v>36400</v>
+        <v>47700</v>
       </c>
       <c r="F21" s="3">
-        <v>33500</v>
+        <v>37700</v>
       </c>
       <c r="G21" s="3">
-        <v>21500</v>
+        <v>34700</v>
       </c>
       <c r="H21" s="3">
-        <v>23100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>22300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>23900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1077,29 +1113,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7900</v>
+        <v>5400</v>
       </c>
       <c r="E22" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="F22" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="G22" s="3">
-        <v>8400</v>
+        <v>9600</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>8600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1107,29 +1146,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29300</v>
+        <v>35000</v>
       </c>
       <c r="E23" s="3">
-        <v>20300</v>
+        <v>30300</v>
       </c>
       <c r="F23" s="3">
-        <v>16900</v>
+        <v>21000</v>
       </c>
       <c r="G23" s="3">
-        <v>7000</v>
+        <v>17500</v>
       </c>
       <c r="H23" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>22700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1179,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8500</v>
+        <v>9300</v>
       </c>
       <c r="E24" s="3">
-        <v>6700</v>
+        <v>8800</v>
       </c>
       <c r="F24" s="3">
-        <v>10800</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>6000</v>
+        <v>11200</v>
       </c>
       <c r="H24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5400</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20800</v>
+        <v>25700</v>
       </c>
       <c r="E26" s="3">
-        <v>13600</v>
+        <v>21500</v>
       </c>
       <c r="F26" s="3">
-        <v>6100</v>
+        <v>14100</v>
       </c>
       <c r="G26" s="3">
-        <v>1000</v>
+        <v>6300</v>
       </c>
       <c r="H26" s="3">
-        <v>16800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>17400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19000</v>
+        <v>23800</v>
       </c>
       <c r="E27" s="3">
-        <v>12500</v>
+        <v>19700</v>
       </c>
       <c r="F27" s="3">
-        <v>5300</v>
+        <v>12900</v>
       </c>
       <c r="G27" s="3">
-        <v>500</v>
+        <v>5400</v>
       </c>
       <c r="H27" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>16700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,29 +1443,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-2700</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1476,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19000</v>
+        <v>23800</v>
       </c>
       <c r="E33" s="3">
-        <v>12500</v>
+        <v>19700</v>
       </c>
       <c r="F33" s="3">
-        <v>5300</v>
+        <v>12900</v>
       </c>
       <c r="G33" s="3">
-        <v>500</v>
+        <v>5400</v>
       </c>
       <c r="H33" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>16700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19000</v>
+        <v>23800</v>
       </c>
       <c r="E35" s="3">
-        <v>12500</v>
+        <v>19700</v>
       </c>
       <c r="F35" s="3">
-        <v>5300</v>
+        <v>12900</v>
       </c>
       <c r="G35" s="3">
-        <v>500</v>
+        <v>5400</v>
       </c>
       <c r="H35" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>16700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27500</v>
+        <v>45800</v>
       </c>
       <c r="E41" s="3">
-        <v>37600</v>
+        <v>28400</v>
       </c>
       <c r="F41" s="3">
-        <v>18600</v>
+        <v>38900</v>
       </c>
       <c r="G41" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1605,12 +1694,12 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
-        <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>4500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
-        <v>800</v>
-      </c>
       <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>11300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29800</v>
+        <v>51900</v>
       </c>
       <c r="E46" s="3">
-        <v>39000</v>
+        <v>30800</v>
       </c>
       <c r="F46" s="3">
-        <v>20100</v>
+        <v>40400</v>
       </c>
       <c r="G46" s="3">
-        <v>19700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>20400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,17 +1841,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1767,12 +1871,15 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1780,16 +1887,16 @@
         <v>9300</v>
       </c>
       <c r="E48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
-        <v>700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127400</v>
+        <v>181200</v>
       </c>
       <c r="E49" s="3">
-        <v>133400</v>
+        <v>131800</v>
       </c>
       <c r="F49" s="3">
-        <v>138200</v>
+        <v>138100</v>
       </c>
       <c r="G49" s="3">
-        <v>143800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>143000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>148900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,27 +2006,30 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
-        <v>700</v>
-      </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>171500</v>
+        <v>247300</v>
       </c>
       <c r="E54" s="3">
-        <v>175400</v>
+        <v>177500</v>
       </c>
       <c r="F54" s="3">
-        <v>160000</v>
+        <v>181500</v>
       </c>
       <c r="G54" s="3">
-        <v>164700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>165600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>170500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>1200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14800</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
-        <v>16200</v>
+        <v>15300</v>
       </c>
       <c r="F58" s="3">
-        <v>8900</v>
+        <v>16800</v>
       </c>
       <c r="G58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>9200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45500</v>
+        <v>65800</v>
       </c>
       <c r="E59" s="3">
-        <v>35900</v>
+        <v>47100</v>
       </c>
       <c r="F59" s="3">
-        <v>27000</v>
+        <v>37200</v>
       </c>
       <c r="G59" s="3">
-        <v>19600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>28000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>20200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>61700</v>
+        <v>76800</v>
       </c>
       <c r="E60" s="3">
-        <v>53200</v>
+        <v>63900</v>
       </c>
       <c r="F60" s="3">
-        <v>36700</v>
+        <v>55100</v>
       </c>
       <c r="G60" s="3">
-        <v>23100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>38000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>23900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,26 +2267,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56500</v>
+        <v>108300</v>
       </c>
       <c r="E61" s="3">
-        <v>68400</v>
+        <v>58500</v>
       </c>
       <c r="F61" s="3">
-        <v>81000</v>
+        <v>70800</v>
       </c>
       <c r="G61" s="3">
-        <v>62200</v>
+        <v>83900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>64300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8700</v>
+        <v>14500</v>
       </c>
       <c r="E62" s="3">
-        <v>14300</v>
+        <v>9000</v>
       </c>
       <c r="F62" s="3">
-        <v>16600</v>
+        <v>14800</v>
       </c>
       <c r="G62" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>17000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>127300</v>
+        <v>200500</v>
       </c>
       <c r="E66" s="3">
-        <v>136300</v>
+        <v>131800</v>
       </c>
       <c r="F66" s="3">
-        <v>134600</v>
+        <v>141100</v>
       </c>
       <c r="G66" s="3">
-        <v>101800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>139300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>105400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,9 +2612,12 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2452,16 +2625,16 @@
         <v>20900</v>
       </c>
       <c r="E72" s="3">
-        <v>17100</v>
+        <v>21600</v>
       </c>
       <c r="F72" s="3">
-        <v>-40300</v>
+        <v>17700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-41700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44100</v>
+        <v>46800</v>
       </c>
       <c r="E76" s="3">
-        <v>39100</v>
+        <v>45700</v>
       </c>
       <c r="F76" s="3">
-        <v>25400</v>
+        <v>40500</v>
       </c>
       <c r="G76" s="3">
-        <v>62900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>26300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>65100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19000</v>
+        <v>23800</v>
       </c>
       <c r="E81" s="3">
-        <v>12500</v>
+        <v>19700</v>
       </c>
       <c r="F81" s="3">
-        <v>5300</v>
+        <v>12900</v>
       </c>
       <c r="G81" s="3">
-        <v>500</v>
+        <v>5400</v>
       </c>
       <c r="H81" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>16700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9000</v>
+        <v>10200</v>
       </c>
       <c r="E83" s="3">
-        <v>7700</v>
+        <v>9300</v>
       </c>
       <c r="F83" s="3">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="G83" s="3">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="H83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,29 +3094,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34300</v>
+        <v>43800</v>
       </c>
       <c r="E89" s="3">
-        <v>27600</v>
+        <v>35500</v>
       </c>
       <c r="F89" s="3">
-        <v>20900</v>
+        <v>28500</v>
       </c>
       <c r="G89" s="3">
-        <v>10700</v>
+        <v>21700</v>
       </c>
       <c r="H89" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>16200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5000</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,29 +3241,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8400</v>
+        <v>-43900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2300</v>
+        <v>-8700</v>
       </c>
       <c r="F94" s="3">
-        <v>8900</v>
+        <v>-2400</v>
       </c>
       <c r="G94" s="3">
-        <v>-133600</v>
+        <v>9300</v>
       </c>
       <c r="H94" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-138300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-15000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,16 +3292,17 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14900</v>
+        <v>-25700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-15400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-34900</v>
+        <v>15200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6500</v>
+        <v>-36100</v>
       </c>
       <c r="F100" s="3">
-        <v>-16800</v>
+        <v>-6800</v>
       </c>
       <c r="G100" s="3">
-        <v>131100</v>
+        <v>-17300</v>
       </c>
       <c r="H100" s="3">
+        <v>135600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>2400</v>
       </c>
       <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>1100</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10200</v>
+        <v>17400</v>
       </c>
       <c r="E102" s="3">
-        <v>18900</v>
+        <v>-10500</v>
       </c>
       <c r="F102" s="3">
-        <v>14300</v>
+        <v>19500</v>
       </c>
       <c r="G102" s="3">
-        <v>3600</v>
+        <v>14800</v>
       </c>
       <c r="H102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>112700</v>
+        <v>112000</v>
       </c>
       <c r="E8" s="3">
-        <v>106000</v>
+        <v>105300</v>
       </c>
       <c r="F8" s="3">
-        <v>83300</v>
+        <v>82700</v>
       </c>
       <c r="G8" s="3">
-        <v>64400</v>
+        <v>64000</v>
       </c>
       <c r="H8" s="3">
-        <v>50900</v>
+        <v>50600</v>
       </c>
       <c r="I8" s="3">
-        <v>42200</v>
+        <v>42000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>35100</v>
+        <v>34900</v>
       </c>
       <c r="E9" s="3">
-        <v>30400</v>
+        <v>30200</v>
       </c>
       <c r="F9" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="G9" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="H9" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="I9" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>77600</v>
+        <v>77100</v>
       </c>
       <c r="E10" s="3">
-        <v>75600</v>
+        <v>75100</v>
       </c>
       <c r="F10" s="3">
-        <v>59900</v>
+        <v>59500</v>
       </c>
       <c r="G10" s="3">
-        <v>43900</v>
+        <v>43600</v>
       </c>
       <c r="H10" s="3">
-        <v>33900</v>
+        <v>33700</v>
       </c>
       <c r="I10" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -907,7 +907,7 @@
         <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="H14" s="3">
         <v>800</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="E15" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="F15" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G15" s="3">
         <v>7600</v>
       </c>
       <c r="H15" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="I15" s="3">
         <v>1200</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74100</v>
+        <v>73600</v>
       </c>
       <c r="E17" s="3">
-        <v>67800</v>
+        <v>67400</v>
       </c>
       <c r="F17" s="3">
-        <v>54600</v>
+        <v>54300</v>
       </c>
       <c r="G17" s="3">
-        <v>39600</v>
+        <v>39300</v>
       </c>
       <c r="H17" s="3">
-        <v>35100</v>
+        <v>34900</v>
       </c>
       <c r="I17" s="3">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>38700</v>
+        <v>38400</v>
       </c>
       <c r="E18" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="F18" s="3">
-        <v>28600</v>
+        <v>28500</v>
       </c>
       <c r="G18" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="H18" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="I18" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1060,7 +1060,7 @@
         <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>1100</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>50600</v>
+        <v>50300</v>
       </c>
       <c r="E21" s="3">
-        <v>47700</v>
+        <v>47000</v>
       </c>
       <c r="F21" s="3">
-        <v>37700</v>
+        <v>37500</v>
       </c>
       <c r="G21" s="3">
-        <v>34700</v>
+        <v>34500</v>
       </c>
       <c r="H21" s="3">
-        <v>22300</v>
+        <v>22200</v>
       </c>
       <c r="I21" s="3">
-        <v>23900</v>
+        <v>23800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1126,13 +1126,13 @@
         <v>5400</v>
       </c>
       <c r="E22" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="F22" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G22" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H22" s="3">
         <v>8600</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>35000</v>
+        <v>34800</v>
       </c>
       <c r="E23" s="3">
-        <v>30300</v>
+        <v>30100</v>
       </c>
       <c r="F23" s="3">
-        <v>21000</v>
+        <v>20900</v>
       </c>
       <c r="G23" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="H23" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I23" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1192,19 +1192,19 @@
         <v>9300</v>
       </c>
       <c r="E24" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="F24" s="3">
         <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="H24" s="3">
         <v>6200</v>
       </c>
       <c r="I24" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="E26" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="F26" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="G26" s="3">
         <v>6300</v>
       </c>
       <c r="H26" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I26" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,13 +1288,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="E27" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="F27" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G27" s="3">
         <v>5400</v>
@@ -1303,7 +1303,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1456,7 +1456,7 @@
         <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>-1100</v>
@@ -1486,13 +1486,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="E33" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="F33" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G33" s="3">
         <v>5400</v>
@@ -1501,7 +1501,7 @@
         <v>600</v>
       </c>
       <c r="I33" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,13 +1552,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="E35" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="F35" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G35" s="3">
         <v>5400</v>
@@ -1567,7 +1567,7 @@
         <v>600</v>
       </c>
       <c r="I35" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45800</v>
+        <v>45500</v>
       </c>
       <c r="E41" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="F41" s="3">
-        <v>38900</v>
+        <v>38700</v>
       </c>
       <c r="G41" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="H41" s="3">
         <v>4400</v>
@@ -1719,7 +1719,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
@@ -1731,7 +1731,7 @@
         <v>500</v>
       </c>
       <c r="H43" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
         <v>1600</v>
@@ -1797,7 +1797,7 @@
         <v>1100</v>
       </c>
       <c r="H45" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51900</v>
+        <v>51500</v>
       </c>
       <c r="E46" s="3">
-        <v>30800</v>
+        <v>30600</v>
       </c>
       <c r="F46" s="3">
-        <v>40400</v>
+        <v>40100</v>
       </c>
       <c r="G46" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="H46" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E48" s="3">
         <v>9600</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>181200</v>
+        <v>180000</v>
       </c>
       <c r="E49" s="3">
-        <v>131800</v>
+        <v>131000</v>
       </c>
       <c r="F49" s="3">
-        <v>138100</v>
+        <v>137100</v>
       </c>
       <c r="G49" s="3">
-        <v>143000</v>
+        <v>142100</v>
       </c>
       <c r="H49" s="3">
-        <v>148900</v>
+        <v>147900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>247300</v>
+        <v>245700</v>
       </c>
       <c r="E54" s="3">
-        <v>177500</v>
+        <v>176300</v>
       </c>
       <c r="F54" s="3">
-        <v>181500</v>
+        <v>180300</v>
       </c>
       <c r="G54" s="3">
-        <v>165600</v>
+        <v>164500</v>
       </c>
       <c r="H54" s="3">
-        <v>170500</v>
+        <v>169300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="F58" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="H58" s="3">
         <v>2500</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65800</v>
+        <v>65400</v>
       </c>
       <c r="E59" s="3">
-        <v>47100</v>
+        <v>46800</v>
       </c>
       <c r="F59" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="G59" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="H59" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76800</v>
+        <v>76300</v>
       </c>
       <c r="E60" s="3">
-        <v>63900</v>
+        <v>63400</v>
       </c>
       <c r="F60" s="3">
-        <v>55100</v>
+        <v>54700</v>
       </c>
       <c r="G60" s="3">
-        <v>38000</v>
+        <v>37700</v>
       </c>
       <c r="H60" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>108300</v>
+        <v>107600</v>
       </c>
       <c r="E61" s="3">
-        <v>58500</v>
+        <v>58100</v>
       </c>
       <c r="F61" s="3">
-        <v>70800</v>
+        <v>70400</v>
       </c>
       <c r="G61" s="3">
-        <v>83900</v>
+        <v>83300</v>
       </c>
       <c r="H61" s="3">
-        <v>64300</v>
+        <v>63900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="E62" s="3">
         <v>9000</v>
       </c>
       <c r="F62" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="G62" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="H62" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200500</v>
+        <v>199200</v>
       </c>
       <c r="E66" s="3">
-        <v>131800</v>
+        <v>130900</v>
       </c>
       <c r="F66" s="3">
-        <v>141100</v>
+        <v>140100</v>
       </c>
       <c r="G66" s="3">
-        <v>139300</v>
+        <v>138400</v>
       </c>
       <c r="H66" s="3">
-        <v>105400</v>
+        <v>104700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="E72" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="F72" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="G72" s="3">
-        <v>-41700</v>
+        <v>-41500</v>
       </c>
       <c r="H72" s="3">
         <v>-1200</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46800</v>
+        <v>46500</v>
       </c>
       <c r="E76" s="3">
-        <v>45700</v>
+        <v>45400</v>
       </c>
       <c r="F76" s="3">
-        <v>40500</v>
+        <v>40200</v>
       </c>
       <c r="G76" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="H76" s="3">
-        <v>65100</v>
+        <v>64700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="E81" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="F81" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G81" s="3">
         <v>5400</v>
@@ -2873,7 +2873,7 @@
         <v>600</v>
       </c>
       <c r="I81" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="E83" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="F83" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G83" s="3">
         <v>7600</v>
       </c>
       <c r="H83" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43800</v>
+        <v>43500</v>
       </c>
       <c r="E89" s="3">
-        <v>35500</v>
+        <v>35300</v>
       </c>
       <c r="F89" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="G89" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="H89" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="I89" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43900</v>
+        <v>-43600</v>
       </c>
       <c r="E94" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="F94" s="3">
         <v>-2400</v>
       </c>
       <c r="G94" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="H94" s="3">
-        <v>-138300</v>
+        <v>-137400</v>
       </c>
       <c r="I94" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,10 +3299,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25700</v>
+        <v>-25500</v>
       </c>
       <c r="E96" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="E100" s="3">
-        <v>-36100</v>
+        <v>-35900</v>
       </c>
       <c r="F100" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G100" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="H100" s="3">
-        <v>135600</v>
+        <v>134800</v>
       </c>
       <c r="I100" s="3">
         <v>-600</v>
@@ -3467,7 +3467,7 @@
         <v>2400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -3476,7 +3476,7 @@
         <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="E102" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="F102" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="G102" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="H102" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>112000</v>
+        <v>111600</v>
       </c>
       <c r="E8" s="3">
-        <v>105300</v>
+        <v>104900</v>
       </c>
       <c r="F8" s="3">
-        <v>82700</v>
+        <v>82400</v>
       </c>
       <c r="G8" s="3">
-        <v>64000</v>
+        <v>63700</v>
       </c>
       <c r="H8" s="3">
-        <v>50600</v>
+        <v>50400</v>
       </c>
       <c r="I8" s="3">
-        <v>42000</v>
+        <v>41800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>34900</v>
+        <v>34800</v>
       </c>
       <c r="E9" s="3">
-        <v>30200</v>
+        <v>30100</v>
       </c>
       <c r="F9" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="G9" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="H9" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="I9" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>77100</v>
+        <v>76800</v>
       </c>
       <c r="E10" s="3">
-        <v>75100</v>
+        <v>74800</v>
       </c>
       <c r="F10" s="3">
-        <v>59500</v>
+        <v>59300</v>
       </c>
       <c r="G10" s="3">
-        <v>43600</v>
+        <v>43500</v>
       </c>
       <c r="H10" s="3">
-        <v>33700</v>
+        <v>33500</v>
       </c>
       <c r="I10" s="3">
-        <v>28600</v>
+        <v>28500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73600</v>
+        <v>73300</v>
       </c>
       <c r="E17" s="3">
-        <v>67400</v>
+        <v>67100</v>
       </c>
       <c r="F17" s="3">
-        <v>54300</v>
+        <v>54100</v>
       </c>
       <c r="G17" s="3">
-        <v>39300</v>
+        <v>39200</v>
       </c>
       <c r="H17" s="3">
-        <v>34900</v>
+        <v>34800</v>
       </c>
       <c r="I17" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="E18" s="3">
-        <v>37900</v>
+        <v>37800</v>
       </c>
       <c r="F18" s="3">
-        <v>28500</v>
+        <v>28400</v>
       </c>
       <c r="G18" s="3">
-        <v>24600</v>
+        <v>24500</v>
       </c>
       <c r="H18" s="3">
         <v>15600</v>
       </c>
       <c r="I18" s="3">
-        <v>19900</v>
+        <v>19800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>50300</v>
+        <v>49900</v>
       </c>
       <c r="E21" s="3">
-        <v>47000</v>
+        <v>46700</v>
       </c>
       <c r="F21" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="G21" s="3">
-        <v>34500</v>
+        <v>34200</v>
       </c>
       <c r="H21" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="I21" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E22" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F22" s="3">
         <v>8700</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34800</v>
+        <v>34600</v>
       </c>
       <c r="E23" s="3">
-        <v>30100</v>
+        <v>30000</v>
       </c>
       <c r="F23" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="G23" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="H23" s="3">
         <v>7200</v>
       </c>
       <c r="I23" s="3">
-        <v>22600</v>
+        <v>22500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E24" s="3">
         <v>8700</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="E26" s="3">
-        <v>21400</v>
+        <v>21300</v>
       </c>
       <c r="F26" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="G26" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H26" s="3">
         <v>1000</v>
@@ -1291,7 +1291,7 @@
         <v>23600</v>
       </c>
       <c r="E27" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="F27" s="3">
         <v>12800</v>
@@ -1303,7 +1303,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1489,7 +1489,7 @@
         <v>23600</v>
       </c>
       <c r="E33" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="F33" s="3">
         <v>12800</v>
@@ -1501,7 +1501,7 @@
         <v>600</v>
       </c>
       <c r="I33" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1555,7 +1555,7 @@
         <v>23600</v>
       </c>
       <c r="E35" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="F35" s="3">
         <v>12800</v>
@@ -1567,7 +1567,7 @@
         <v>600</v>
       </c>
       <c r="I35" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="E41" s="3">
-        <v>28200</v>
+        <v>28100</v>
       </c>
       <c r="F41" s="3">
-        <v>38700</v>
+        <v>38500</v>
       </c>
       <c r="G41" s="3">
         <v>19100</v>
@@ -1725,7 +1725,7 @@
         <v>800</v>
       </c>
       <c r="F43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
@@ -1797,7 +1797,7 @@
         <v>1100</v>
       </c>
       <c r="H45" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51500</v>
+        <v>51300</v>
       </c>
       <c r="E46" s="3">
-        <v>30600</v>
+        <v>30500</v>
       </c>
       <c r="F46" s="3">
-        <v>40100</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="H46" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E47" s="3">
         <v>2800</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>180000</v>
+        <v>179400</v>
       </c>
       <c r="E49" s="3">
-        <v>131000</v>
+        <v>130500</v>
       </c>
       <c r="F49" s="3">
-        <v>137100</v>
+        <v>136600</v>
       </c>
       <c r="G49" s="3">
-        <v>142100</v>
+        <v>141500</v>
       </c>
       <c r="H49" s="3">
-        <v>147900</v>
+        <v>147300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>245700</v>
+        <v>244800</v>
       </c>
       <c r="E54" s="3">
-        <v>176300</v>
+        <v>175600</v>
       </c>
       <c r="F54" s="3">
-        <v>180300</v>
+        <v>179700</v>
       </c>
       <c r="G54" s="3">
-        <v>164500</v>
+        <v>163900</v>
       </c>
       <c r="H54" s="3">
-        <v>169300</v>
+        <v>168700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2181,10 +2181,10 @@
         <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="F58" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="G58" s="3">
         <v>9100</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65400</v>
+        <v>65100</v>
       </c>
       <c r="E59" s="3">
-        <v>46800</v>
+        <v>46600</v>
       </c>
       <c r="F59" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="G59" s="3">
-        <v>27800</v>
+        <v>27700</v>
       </c>
       <c r="H59" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76300</v>
+        <v>76000</v>
       </c>
       <c r="E60" s="3">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="F60" s="3">
-        <v>54700</v>
+        <v>54500</v>
       </c>
       <c r="G60" s="3">
-        <v>37700</v>
+        <v>37600</v>
       </c>
       <c r="H60" s="3">
         <v>23700</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107600</v>
+        <v>107200</v>
       </c>
       <c r="E61" s="3">
-        <v>58100</v>
+        <v>57900</v>
       </c>
       <c r="F61" s="3">
-        <v>70400</v>
+        <v>70100</v>
       </c>
       <c r="G61" s="3">
-        <v>83300</v>
+        <v>83000</v>
       </c>
       <c r="H61" s="3">
-        <v>63900</v>
+        <v>63700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2313,16 +2313,16 @@
         <v>14400</v>
       </c>
       <c r="E62" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F62" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="G62" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="H62" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>199200</v>
+        <v>198500</v>
       </c>
       <c r="E66" s="3">
-        <v>130900</v>
+        <v>130400</v>
       </c>
       <c r="F66" s="3">
-        <v>140100</v>
+        <v>139600</v>
       </c>
       <c r="G66" s="3">
-        <v>138400</v>
+        <v>137900</v>
       </c>
       <c r="H66" s="3">
-        <v>104700</v>
+        <v>104300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="E72" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="F72" s="3">
         <v>17600</v>
       </c>
       <c r="G72" s="3">
-        <v>-41500</v>
+        <v>-41300</v>
       </c>
       <c r="H72" s="3">
         <v>-1200</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46500</v>
+        <v>46300</v>
       </c>
       <c r="E76" s="3">
-        <v>45400</v>
+        <v>45200</v>
       </c>
       <c r="F76" s="3">
-        <v>40200</v>
+        <v>40100</v>
       </c>
       <c r="G76" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="H76" s="3">
-        <v>64700</v>
+        <v>64400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2861,7 +2861,7 @@
         <v>23600</v>
       </c>
       <c r="E81" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="F81" s="3">
         <v>12800</v>
@@ -2873,7 +2873,7 @@
         <v>600</v>
       </c>
       <c r="I81" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43500</v>
+        <v>43300</v>
       </c>
       <c r="E89" s="3">
-        <v>35300</v>
+        <v>35200</v>
       </c>
       <c r="F89" s="3">
-        <v>28300</v>
+        <v>28200</v>
       </c>
       <c r="G89" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="H89" s="3">
         <v>11000</v>
       </c>
       <c r="I89" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3155,7 +3155,7 @@
         <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="F91" s="3">
         <v>-1600</v>
@@ -3251,7 +3251,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43600</v>
+        <v>-43500</v>
       </c>
       <c r="E94" s="3">
         <v>-8600</v>
@@ -3263,10 +3263,10 @@
         <v>9200</v>
       </c>
       <c r="H94" s="3">
-        <v>-137400</v>
+        <v>-136900</v>
       </c>
       <c r="I94" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25500</v>
+        <v>-25400</v>
       </c>
       <c r="E96" s="3">
         <v>-15300</v>
@@ -3431,10 +3431,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="E100" s="3">
-        <v>-35900</v>
+        <v>-35700</v>
       </c>
       <c r="F100" s="3">
         <v>-6700</v>
@@ -3443,7 +3443,7 @@
         <v>-17200</v>
       </c>
       <c r="H100" s="3">
-        <v>134800</v>
+        <v>134300</v>
       </c>
       <c r="I100" s="3">
         <v>-600</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="E102" s="3">
         <v>-10400</v>
       </c>
       <c r="F102" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="G102" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="H102" s="3">
         <v>3700</v>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>111600</v>
+        <v>65500</v>
       </c>
       <c r="E8" s="3">
-        <v>104900</v>
+        <v>61600</v>
       </c>
       <c r="F8" s="3">
-        <v>82400</v>
+        <v>48400</v>
       </c>
       <c r="G8" s="3">
-        <v>63700</v>
+        <v>37400</v>
       </c>
       <c r="H8" s="3">
-        <v>50400</v>
+        <v>29600</v>
       </c>
       <c r="I8" s="3">
-        <v>41800</v>
+        <v>24500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>34800</v>
+        <v>20400</v>
       </c>
       <c r="E9" s="3">
-        <v>30100</v>
+        <v>17700</v>
       </c>
       <c r="F9" s="3">
-        <v>23100</v>
+        <v>13600</v>
       </c>
       <c r="G9" s="3">
-        <v>20300</v>
+        <v>11900</v>
       </c>
       <c r="H9" s="3">
-        <v>16800</v>
+        <v>9900</v>
       </c>
       <c r="I9" s="3">
-        <v>13300</v>
+        <v>7800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>76800</v>
+        <v>45100</v>
       </c>
       <c r="E10" s="3">
-        <v>74800</v>
+        <v>43900</v>
       </c>
       <c r="F10" s="3">
-        <v>59300</v>
+        <v>34800</v>
       </c>
       <c r="G10" s="3">
-        <v>43500</v>
+        <v>25500</v>
       </c>
       <c r="H10" s="3">
-        <v>33500</v>
+        <v>19700</v>
       </c>
       <c r="I10" s="3">
-        <v>28500</v>
+        <v>16700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-5900</v>
+        <v>-3500</v>
       </c>
       <c r="H14" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -931,22 +931,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10100</v>
+        <v>5900</v>
       </c>
       <c r="E15" s="3">
-        <v>9200</v>
+        <v>5400</v>
       </c>
       <c r="F15" s="3">
-        <v>7900</v>
+        <v>4600</v>
       </c>
       <c r="G15" s="3">
-        <v>7600</v>
+        <v>4400</v>
       </c>
       <c r="H15" s="3">
-        <v>6300</v>
+        <v>3700</v>
       </c>
       <c r="I15" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73300</v>
+        <v>43000</v>
       </c>
       <c r="E17" s="3">
-        <v>67100</v>
+        <v>39400</v>
       </c>
       <c r="F17" s="3">
-        <v>54100</v>
+        <v>31700</v>
       </c>
       <c r="G17" s="3">
-        <v>39200</v>
+        <v>23000</v>
       </c>
       <c r="H17" s="3">
-        <v>34800</v>
+        <v>20400</v>
       </c>
       <c r="I17" s="3">
-        <v>22000</v>
+        <v>12900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>38300</v>
+        <v>22500</v>
       </c>
       <c r="E18" s="3">
-        <v>37800</v>
+        <v>22200</v>
       </c>
       <c r="F18" s="3">
-        <v>28400</v>
+        <v>16600</v>
       </c>
       <c r="G18" s="3">
-        <v>24500</v>
+        <v>14400</v>
       </c>
       <c r="H18" s="3">
-        <v>15600</v>
+        <v>9200</v>
       </c>
       <c r="I18" s="3">
-        <v>19800</v>
+        <v>11600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G20" s="3">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>49900</v>
+        <v>29200</v>
       </c>
       <c r="E21" s="3">
-        <v>46700</v>
+        <v>27300</v>
       </c>
       <c r="F21" s="3">
-        <v>37200</v>
+        <v>21800</v>
       </c>
       <c r="G21" s="3">
-        <v>34200</v>
+        <v>20000</v>
       </c>
       <c r="H21" s="3">
-        <v>22000</v>
+        <v>12900</v>
       </c>
       <c r="I21" s="3">
-        <v>23700</v>
+        <v>13900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5300</v>
+        <v>3100</v>
       </c>
       <c r="E22" s="3">
-        <v>7600</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="3">
-        <v>8700</v>
+        <v>5100</v>
       </c>
       <c r="G22" s="3">
-        <v>9500</v>
+        <v>5600</v>
       </c>
       <c r="H22" s="3">
-        <v>8600</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34600</v>
+        <v>20300</v>
       </c>
       <c r="E23" s="3">
-        <v>30000</v>
+        <v>17600</v>
       </c>
       <c r="F23" s="3">
-        <v>20800</v>
+        <v>12200</v>
       </c>
       <c r="G23" s="3">
-        <v>17300</v>
+        <v>10200</v>
       </c>
       <c r="H23" s="3">
-        <v>7200</v>
+        <v>4200</v>
       </c>
       <c r="I23" s="3">
-        <v>22500</v>
+        <v>13200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9200</v>
+        <v>5400</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>5100</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="3">
-        <v>11100</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
-        <v>6200</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
-        <v>5300</v>
+        <v>3100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25400</v>
+        <v>14900</v>
       </c>
       <c r="E26" s="3">
-        <v>21300</v>
+        <v>12500</v>
       </c>
       <c r="F26" s="3">
-        <v>13900</v>
+        <v>8200</v>
       </c>
       <c r="G26" s="3">
-        <v>6200</v>
+        <v>3700</v>
       </c>
       <c r="H26" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I26" s="3">
-        <v>17200</v>
+        <v>10100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23600</v>
+        <v>13800</v>
       </c>
       <c r="E27" s="3">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="F27" s="3">
-        <v>12800</v>
+        <v>7500</v>
       </c>
       <c r="G27" s="3">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="H27" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I27" s="3">
-        <v>16500</v>
+        <v>9700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2300</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23600</v>
+        <v>13800</v>
       </c>
       <c r="E33" s="3">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="F33" s="3">
-        <v>12800</v>
+        <v>7500</v>
       </c>
       <c r="G33" s="3">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="H33" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I33" s="3">
-        <v>16500</v>
+        <v>9700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23600</v>
+        <v>13800</v>
       </c>
       <c r="E35" s="3">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="F35" s="3">
-        <v>12800</v>
+        <v>7500</v>
       </c>
       <c r="G35" s="3">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="H35" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I35" s="3">
-        <v>16500</v>
+        <v>9700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45400</v>
+        <v>26600</v>
       </c>
       <c r="E41" s="3">
-        <v>28100</v>
+        <v>16500</v>
       </c>
       <c r="F41" s="3">
-        <v>38500</v>
+        <v>22600</v>
       </c>
       <c r="G41" s="3">
-        <v>19100</v>
+        <v>11200</v>
       </c>
       <c r="H41" s="3">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4900</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="H45" s="3">
-        <v>11100</v>
+        <v>6500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51300</v>
+        <v>30100</v>
       </c>
       <c r="E46" s="3">
-        <v>30500</v>
+        <v>17900</v>
       </c>
       <c r="F46" s="3">
-        <v>40000</v>
+        <v>23500</v>
       </c>
       <c r="G46" s="3">
-        <v>20600</v>
+        <v>12100</v>
       </c>
       <c r="H46" s="3">
-        <v>20200</v>
+        <v>11900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9200</v>
+        <v>5400</v>
       </c>
       <c r="E48" s="3">
-        <v>9600</v>
+        <v>5600</v>
       </c>
       <c r="F48" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="G48" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>179400</v>
+        <v>105300</v>
       </c>
       <c r="E49" s="3">
-        <v>130500</v>
+        <v>76600</v>
       </c>
       <c r="F49" s="3">
-        <v>136600</v>
+        <v>80200</v>
       </c>
       <c r="G49" s="3">
-        <v>141500</v>
+        <v>83100</v>
       </c>
       <c r="H49" s="3">
-        <v>147300</v>
+        <v>86500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>244800</v>
+        <v>143700</v>
       </c>
       <c r="E54" s="3">
-        <v>175600</v>
+        <v>103100</v>
       </c>
       <c r="F54" s="3">
-        <v>179700</v>
+        <v>105500</v>
       </c>
       <c r="G54" s="3">
-        <v>163900</v>
+        <v>96300</v>
       </c>
       <c r="H54" s="3">
-        <v>168700</v>
+        <v>99100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>4500</v>
       </c>
       <c r="E58" s="3">
-        <v>15100</v>
+        <v>8900</v>
       </c>
       <c r="F58" s="3">
-        <v>16600</v>
+        <v>9800</v>
       </c>
       <c r="G58" s="3">
-        <v>9100</v>
+        <v>5300</v>
       </c>
       <c r="H58" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65100</v>
+        <v>38200</v>
       </c>
       <c r="E59" s="3">
-        <v>46600</v>
+        <v>27400</v>
       </c>
       <c r="F59" s="3">
-        <v>36800</v>
+        <v>21600</v>
       </c>
       <c r="G59" s="3">
-        <v>27700</v>
+        <v>16300</v>
       </c>
       <c r="H59" s="3">
-        <v>20000</v>
+        <v>11800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76000</v>
+        <v>44600</v>
       </c>
       <c r="E60" s="3">
-        <v>63200</v>
+        <v>37100</v>
       </c>
       <c r="F60" s="3">
-        <v>54500</v>
+        <v>32000</v>
       </c>
       <c r="G60" s="3">
-        <v>37600</v>
+        <v>22100</v>
       </c>
       <c r="H60" s="3">
-        <v>23700</v>
+        <v>13900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107200</v>
+        <v>62900</v>
       </c>
       <c r="E61" s="3">
-        <v>57900</v>
+        <v>34000</v>
       </c>
       <c r="F61" s="3">
-        <v>70100</v>
+        <v>41200</v>
       </c>
       <c r="G61" s="3">
-        <v>83000</v>
+        <v>48700</v>
       </c>
       <c r="H61" s="3">
-        <v>63700</v>
+        <v>37400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14400</v>
+        <v>8400</v>
       </c>
       <c r="E62" s="3">
-        <v>8900</v>
+        <v>5200</v>
       </c>
       <c r="F62" s="3">
-        <v>14600</v>
+        <v>8600</v>
       </c>
       <c r="G62" s="3">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="H62" s="3">
-        <v>16800</v>
+        <v>9900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>198500</v>
+        <v>116500</v>
       </c>
       <c r="E66" s="3">
-        <v>130400</v>
+        <v>76600</v>
       </c>
       <c r="F66" s="3">
-        <v>139600</v>
+        <v>82000</v>
       </c>
       <c r="G66" s="3">
-        <v>137900</v>
+        <v>81000</v>
       </c>
       <c r="H66" s="3">
-        <v>104300</v>
+        <v>61200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20700</v>
+        <v>12200</v>
       </c>
       <c r="E72" s="3">
-        <v>21400</v>
+        <v>12600</v>
       </c>
       <c r="F72" s="3">
-        <v>17600</v>
+        <v>10300</v>
       </c>
       <c r="G72" s="3">
-        <v>-41300</v>
+        <v>-24300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1200</v>
+        <v>-700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46300</v>
+        <v>27200</v>
       </c>
       <c r="E76" s="3">
-        <v>45200</v>
+        <v>26500</v>
       </c>
       <c r="F76" s="3">
-        <v>40100</v>
+        <v>23500</v>
       </c>
       <c r="G76" s="3">
-        <v>26000</v>
+        <v>15300</v>
       </c>
       <c r="H76" s="3">
-        <v>64400</v>
+        <v>37800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23600</v>
+        <v>13800</v>
       </c>
       <c r="E81" s="3">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="F81" s="3">
-        <v>12800</v>
+        <v>7500</v>
       </c>
       <c r="G81" s="3">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="H81" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I81" s="3">
-        <v>16500</v>
+        <v>9700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,22 +2906,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10100</v>
+        <v>5900</v>
       </c>
       <c r="E83" s="3">
-        <v>9200</v>
+        <v>5400</v>
       </c>
       <c r="F83" s="3">
-        <v>7900</v>
+        <v>4600</v>
       </c>
       <c r="G83" s="3">
-        <v>7600</v>
+        <v>4400</v>
       </c>
       <c r="H83" s="3">
-        <v>6300</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43300</v>
+        <v>25400</v>
       </c>
       <c r="E89" s="3">
-        <v>35200</v>
+        <v>20700</v>
       </c>
       <c r="F89" s="3">
-        <v>28200</v>
+        <v>16600</v>
       </c>
       <c r="G89" s="3">
-        <v>21400</v>
+        <v>12600</v>
       </c>
       <c r="H89" s="3">
-        <v>11000</v>
+        <v>6400</v>
       </c>
       <c r="I89" s="3">
-        <v>16000</v>
+        <v>9400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,22 +3152,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5100</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1600</v>
+        <v>-900</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43500</v>
+        <v>-25500</v>
       </c>
       <c r="E94" s="3">
-        <v>-8600</v>
+        <v>-5000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2400</v>
+        <v>-1400</v>
       </c>
       <c r="G94" s="3">
-        <v>9200</v>
+        <v>5400</v>
       </c>
       <c r="H94" s="3">
-        <v>-136900</v>
+        <v>-80400</v>
       </c>
       <c r="I94" s="3">
-        <v>-14800</v>
+        <v>-8700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3299,10 +3299,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25400</v>
+        <v>-14900</v>
       </c>
       <c r="E96" s="3">
-        <v>-15300</v>
+        <v>-9000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15000</v>
+        <v>8800</v>
       </c>
       <c r="E100" s="3">
-        <v>-35700</v>
+        <v>-21000</v>
       </c>
       <c r="F100" s="3">
-        <v>-6700</v>
+        <v>-3900</v>
       </c>
       <c r="G100" s="3">
-        <v>-17200</v>
+        <v>-10100</v>
       </c>
       <c r="H100" s="3">
-        <v>134300</v>
+        <v>78800</v>
       </c>
       <c r="I100" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,22 +3464,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1200</v>
+        <v>-700</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>-4600</v>
+        <v>-2700</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17200</v>
+        <v>10100</v>
       </c>
       <c r="E102" s="3">
-        <v>-10400</v>
+        <v>-6100</v>
       </c>
       <c r="F102" s="3">
-        <v>19300</v>
+        <v>11300</v>
       </c>
       <c r="G102" s="3">
-        <v>14600</v>
+        <v>8600</v>
       </c>
       <c r="H102" s="3">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="I102" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HHR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>HHR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>65500</v>
+        <v>256400</v>
       </c>
       <c r="E8" s="3">
-        <v>61600</v>
+        <v>133000</v>
       </c>
       <c r="F8" s="3">
-        <v>48400</v>
+        <v>125100</v>
       </c>
       <c r="G8" s="3">
-        <v>37400</v>
+        <v>98300</v>
       </c>
       <c r="H8" s="3">
-        <v>29600</v>
+        <v>76000</v>
       </c>
       <c r="I8" s="3">
-        <v>24500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>60100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>49800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>20400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7800</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>45100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>43900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>34800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>25500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>19700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>16700</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,14 +907,17 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -907,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-3500</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
-        <v>500</v>
+        <v>-7100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -924,32 +943,35 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5900</v>
+        <v>17100</v>
       </c>
       <c r="E15" s="3">
-        <v>5400</v>
+        <v>12100</v>
       </c>
       <c r="F15" s="3">
-        <v>4600</v>
+        <v>11000</v>
       </c>
       <c r="G15" s="3">
-        <v>4400</v>
+        <v>9400</v>
       </c>
       <c r="H15" s="3">
-        <v>3700</v>
+        <v>9000</v>
       </c>
       <c r="I15" s="3">
-        <v>700</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,31 +995,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43000</v>
+        <v>141200</v>
       </c>
       <c r="E17" s="3">
-        <v>39400</v>
+        <v>87400</v>
       </c>
       <c r="F17" s="3">
-        <v>31700</v>
+        <v>80000</v>
       </c>
       <c r="G17" s="3">
-        <v>23000</v>
+        <v>64400</v>
       </c>
       <c r="H17" s="3">
-        <v>20400</v>
+        <v>46700</v>
       </c>
       <c r="I17" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>26200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1002,32 +1028,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22500</v>
+        <v>115200</v>
       </c>
       <c r="E18" s="3">
-        <v>22200</v>
+        <v>45600</v>
       </c>
       <c r="F18" s="3">
-        <v>16600</v>
+        <v>45100</v>
       </c>
       <c r="G18" s="3">
-        <v>14400</v>
+        <v>33800</v>
       </c>
       <c r="H18" s="3">
-        <v>9200</v>
+        <v>29300</v>
       </c>
       <c r="I18" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>23600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,31 +1083,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
         <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1083,32 +1116,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>29200</v>
+        <v>137100</v>
       </c>
       <c r="E21" s="3">
-        <v>27300</v>
+        <v>59300</v>
       </c>
       <c r="F21" s="3">
-        <v>21800</v>
+        <v>55500</v>
       </c>
       <c r="G21" s="3">
-        <v>20000</v>
+        <v>44200</v>
       </c>
       <c r="H21" s="3">
-        <v>12900</v>
+        <v>40700</v>
       </c>
       <c r="I21" s="3">
-        <v>13900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>26100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>28200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1116,32 +1152,35 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>10200</v>
       </c>
       <c r="E22" s="3">
-        <v>4500</v>
+        <v>6400</v>
       </c>
       <c r="F22" s="3">
-        <v>5100</v>
+        <v>9100</v>
       </c>
       <c r="G22" s="3">
-        <v>5600</v>
+        <v>10300</v>
       </c>
       <c r="H22" s="3">
-        <v>5000</v>
+        <v>11300</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1149,32 +1188,35 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20300</v>
+        <v>110300</v>
       </c>
       <c r="E23" s="3">
-        <v>17600</v>
+        <v>41300</v>
       </c>
       <c r="F23" s="3">
-        <v>12200</v>
+        <v>35700</v>
       </c>
       <c r="G23" s="3">
-        <v>10200</v>
+        <v>24800</v>
       </c>
       <c r="H23" s="3">
-        <v>4200</v>
+        <v>20600</v>
       </c>
       <c r="I23" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>8600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1182,32 +1224,35 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5400</v>
+        <v>22100</v>
       </c>
       <c r="E24" s="3">
-        <v>5100</v>
+        <v>11000</v>
       </c>
       <c r="F24" s="3">
-        <v>4000</v>
+        <v>10300</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>13200</v>
       </c>
       <c r="I24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6300</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,32 +1296,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14900</v>
+        <v>88200</v>
       </c>
       <c r="E26" s="3">
-        <v>12500</v>
+        <v>30300</v>
       </c>
       <c r="F26" s="3">
-        <v>8200</v>
+        <v>25400</v>
       </c>
       <c r="G26" s="3">
-        <v>3700</v>
+        <v>16600</v>
       </c>
       <c r="H26" s="3">
-        <v>600</v>
+        <v>7400</v>
       </c>
       <c r="I26" s="3">
-        <v>10100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>1200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>20500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1281,32 +1332,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13800</v>
+        <v>86600</v>
       </c>
       <c r="E27" s="3">
-        <v>11500</v>
+        <v>28100</v>
       </c>
       <c r="F27" s="3">
-        <v>7500</v>
+        <v>23300</v>
       </c>
       <c r="G27" s="3">
-        <v>3200</v>
+        <v>15200</v>
       </c>
       <c r="H27" s="3">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="I27" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,32 +1512,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
         <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1479,32 +1548,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13800</v>
+        <v>86600</v>
       </c>
       <c r="E33" s="3">
-        <v>11500</v>
+        <v>28100</v>
       </c>
       <c r="F33" s="3">
-        <v>7500</v>
+        <v>23300</v>
       </c>
       <c r="G33" s="3">
-        <v>3200</v>
+        <v>15200</v>
       </c>
       <c r="H33" s="3">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="I33" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,32 +1620,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13800</v>
+        <v>86600</v>
       </c>
       <c r="E35" s="3">
-        <v>11500</v>
+        <v>28100</v>
       </c>
       <c r="F35" s="3">
-        <v>7500</v>
+        <v>23300</v>
       </c>
       <c r="G35" s="3">
-        <v>3200</v>
+        <v>15200</v>
       </c>
       <c r="H35" s="3">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="I35" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1578,47 +1656,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26600</v>
+        <v>104800</v>
       </c>
       <c r="E41" s="3">
-        <v>16500</v>
+        <v>54100</v>
       </c>
       <c r="F41" s="3">
-        <v>22600</v>
+        <v>33600</v>
       </c>
       <c r="G41" s="3">
-        <v>11200</v>
+        <v>45900</v>
       </c>
       <c r="H41" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,14 +1765,17 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>4800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1697,11 +1786,11 @@
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
-        <v>200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
-        <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>5300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,29 +1873,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2900</v>
+        <v>5700</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>5900</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>13300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30100</v>
+        <v>117700</v>
       </c>
       <c r="E46" s="3">
-        <v>17900</v>
+        <v>61200</v>
       </c>
       <c r="F46" s="3">
-        <v>23500</v>
+        <v>36400</v>
       </c>
       <c r="G46" s="3">
-        <v>12100</v>
+        <v>47600</v>
       </c>
       <c r="H46" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>24600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>24100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,20 +1945,23 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>6700</v>
       </c>
       <c r="E47" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1874,32 +1978,35 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>9700</v>
       </c>
       <c r="E48" s="3">
-        <v>5600</v>
+        <v>11000</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>11400</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>1200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105300</v>
+        <v>224100</v>
       </c>
       <c r="E49" s="3">
-        <v>76600</v>
+        <v>213100</v>
       </c>
       <c r="F49" s="3">
-        <v>80200</v>
+        <v>155600</v>
       </c>
       <c r="G49" s="3">
-        <v>83100</v>
+        <v>162900</v>
       </c>
       <c r="H49" s="3">
-        <v>86500</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>168800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>175700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>7700</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>143700</v>
+        <v>365900</v>
       </c>
       <c r="E54" s="3">
-        <v>103100</v>
+        <v>291100</v>
       </c>
       <c r="F54" s="3">
-        <v>105500</v>
+        <v>209400</v>
       </c>
       <c r="G54" s="3">
-        <v>96300</v>
+        <v>214200</v>
       </c>
       <c r="H54" s="3">
-        <v>99100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>195500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>201100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>6000</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>3900</v>
       </c>
       <c r="F57" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="H57" s="3">
-        <v>700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,29 +2301,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4500</v>
+        <v>12800</v>
       </c>
       <c r="E58" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="3">
-        <v>9800</v>
+        <v>18100</v>
       </c>
       <c r="G58" s="3">
-        <v>5300</v>
+        <v>19800</v>
       </c>
       <c r="H58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38200</v>
+        <v>116600</v>
       </c>
       <c r="E59" s="3">
-        <v>27400</v>
+        <v>77600</v>
       </c>
       <c r="F59" s="3">
-        <v>21600</v>
+        <v>55500</v>
       </c>
       <c r="G59" s="3">
-        <v>16300</v>
+        <v>43900</v>
       </c>
       <c r="H59" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>33000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>23900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44600</v>
+        <v>135400</v>
       </c>
       <c r="E60" s="3">
-        <v>37100</v>
+        <v>90600</v>
       </c>
       <c r="F60" s="3">
-        <v>32000</v>
+        <v>75400</v>
       </c>
       <c r="G60" s="3">
-        <v>22100</v>
+        <v>65000</v>
       </c>
       <c r="H60" s="3">
-        <v>13900</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>44800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>28200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,29 +2409,32 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62900</v>
+        <v>119400</v>
       </c>
       <c r="E61" s="3">
-        <v>34000</v>
+        <v>127800</v>
       </c>
       <c r="F61" s="3">
-        <v>41200</v>
+        <v>69000</v>
       </c>
       <c r="G61" s="3">
-        <v>48700</v>
+        <v>83600</v>
       </c>
       <c r="H61" s="3">
-        <v>37400</v>
+        <v>99000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>75900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2303,29 +2445,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8400</v>
+        <v>15300</v>
       </c>
       <c r="E62" s="3">
-        <v>5200</v>
+        <v>16400</v>
       </c>
       <c r="F62" s="3">
-        <v>8600</v>
+        <v>10700</v>
       </c>
       <c r="G62" s="3">
-        <v>10000</v>
+        <v>17400</v>
       </c>
       <c r="H62" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>20300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>20000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>116500</v>
+        <v>272100</v>
       </c>
       <c r="E66" s="3">
-        <v>76600</v>
+        <v>235800</v>
       </c>
       <c r="F66" s="3">
-        <v>82000</v>
+        <v>155500</v>
       </c>
       <c r="G66" s="3">
-        <v>81000</v>
+        <v>166500</v>
       </c>
       <c r="H66" s="3">
-        <v>61200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>164400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>124300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12200</v>
+        <v>87500</v>
       </c>
       <c r="E72" s="3">
-        <v>12600</v>
+        <v>31400</v>
       </c>
       <c r="F72" s="3">
-        <v>10300</v>
+        <v>25500</v>
       </c>
       <c r="G72" s="3">
-        <v>-24300</v>
+        <v>20900</v>
       </c>
       <c r="H72" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-49200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27200</v>
+        <v>93700</v>
       </c>
       <c r="E76" s="3">
-        <v>26500</v>
+        <v>55200</v>
       </c>
       <c r="F76" s="3">
-        <v>23500</v>
+        <v>53900</v>
       </c>
       <c r="G76" s="3">
-        <v>15300</v>
+        <v>47800</v>
       </c>
       <c r="H76" s="3">
-        <v>37800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>31000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>76800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,70 +3001,76 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13800</v>
+        <v>86600</v>
       </c>
       <c r="E81" s="3">
-        <v>11500</v>
+        <v>28100</v>
       </c>
       <c r="F81" s="3">
-        <v>7500</v>
+        <v>23300</v>
       </c>
       <c r="G81" s="3">
-        <v>3200</v>
+        <v>15200</v>
       </c>
       <c r="H81" s="3">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="I81" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,31 +3097,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5900</v>
+        <v>17100</v>
       </c>
       <c r="E83" s="3">
-        <v>5400</v>
+        <v>12100</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>11000</v>
       </c>
       <c r="G83" s="3">
-        <v>4400</v>
+        <v>9400</v>
       </c>
       <c r="H83" s="3">
-        <v>3700</v>
+        <v>9000</v>
       </c>
       <c r="I83" s="3">
-        <v>700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,32 +3310,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25400</v>
+        <v>139100</v>
       </c>
       <c r="E89" s="3">
-        <v>20700</v>
+        <v>51600</v>
       </c>
       <c r="F89" s="3">
-        <v>16600</v>
+        <v>41900</v>
       </c>
       <c r="G89" s="3">
-        <v>12600</v>
+        <v>33700</v>
       </c>
       <c r="H89" s="3">
-        <v>6400</v>
+        <v>25600</v>
       </c>
       <c r="I89" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>19100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,31 +3365,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1400</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-6100</v>
       </c>
       <c r="G91" s="3">
-        <v>-500</v>
+        <v>-1900</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,32 +3470,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25500</v>
+        <v>-25300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5000</v>
+        <v>-51800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1400</v>
+        <v>-10200</v>
       </c>
       <c r="G94" s="3">
-        <v>5400</v>
+        <v>-2800</v>
       </c>
       <c r="H94" s="3">
-        <v>-80400</v>
+        <v>10900</v>
       </c>
       <c r="I94" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-163200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-17600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,19 +3525,20 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14900</v>
+        <v>-33300</v>
       </c>
       <c r="E96" s="3">
-        <v>-9000</v>
+        <v>-30300</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-18200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,32 +3666,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8800</v>
+        <v>-63600</v>
       </c>
       <c r="E100" s="3">
-        <v>-21000</v>
+        <v>17900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3900</v>
+        <v>-42600</v>
       </c>
       <c r="G100" s="3">
-        <v>-10100</v>
+        <v>-8000</v>
       </c>
       <c r="H100" s="3">
-        <v>78800</v>
+        <v>-20500</v>
       </c>
       <c r="I100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>160100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3457,65 +3702,71 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>200</v>
+      </c>
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10100</v>
+        <v>50700</v>
       </c>
       <c r="E102" s="3">
-        <v>-6100</v>
+        <v>20500</v>
       </c>
       <c r="F102" s="3">
-        <v>11300</v>
+        <v>-12400</v>
       </c>
       <c r="G102" s="3">
-        <v>8600</v>
+        <v>23000</v>
       </c>
       <c r="H102" s="3">
-        <v>2200</v>
+        <v>17400</v>
       </c>
       <c r="I102" s="3">
-        <v>400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
